--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\SeleniumTest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2CAFD-1E3D-4E91-A6F8-C1EE75485D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6E645-8E4C-4202-8772-A7E17D340D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="648" yWindow="432" windowWidth="17280" windowHeight="11808" activeTab="2" xr2:uid="{2C7D03FA-9BCB-45F7-B3CC-A14DA487A0C7}"/>
   </bookViews>
@@ -102,85 +102,85 @@
     <t>ProductName</t>
   </si>
   <si>
+    <t>Sản phẩm này đã hết. Bạn có muốn quay lại trang sản phẩm không?</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>ProduceLine</t>
+  </si>
+  <si>
+    <t>#douong</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tag/link/id</t>
+  </si>
+  <si>
+    <t>Vui lòng điền đầy đủ thông tin để tiếp tục.</t>
+  </si>
+  <si>
+    <t>Định dạng số điện thoại sai. Vui lòng điền lại.</t>
+  </si>
+  <si>
+    <t>CHÚC MỪNG BẠN ĐÃ ĐẶT HÀNG THÀNH CÔNG</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Thêm đường</t>
+  </si>
+  <si>
+    <t>02596acd</t>
+  </si>
+  <si>
+    <t>144 Xuân Thủy, Cầu Giấy</t>
+  </si>
+  <si>
+    <t>0356845632</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Ngõ 36 Hồ Tùng Mậu, Mai Dịch, Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Thêm đá, Nhiều cay</t>
+  </si>
+  <si>
+    <t>Kimbap</t>
+  </si>
+  <si>
+    <t>Kimbap thịt nướng</t>
+  </si>
+  <si>
+    <t>Rượu Soju</t>
+  </si>
+  <si>
+    <t>Tokbokki</t>
+  </si>
+  <si>
+    <t>Tokbokki phô mai</t>
+  </si>
+  <si>
     <t>Cơm thịt nướng</t>
   </si>
   <si>
-    <t>Sản phẩm này đã hết. Bạn có muốn quay lại trang sản phẩm không?</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>ProduceLine</t>
-  </si>
-  <si>
-    <t>Gà</t>
-  </si>
-  <si>
-    <t>Gà rán sốt cay</t>
-  </si>
-  <si>
-    <t>#douong</t>
-  </si>
-  <si>
-    <t>Coca Cola</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Cơm</t>
-  </si>
-  <si>
-    <t>Cơm rang kim chi</t>
-  </si>
-  <si>
-    <t>Tag/link/id</t>
-  </si>
-  <si>
-    <t>Vui lòng điền đầy đủ thông tin để tiếp tục.</t>
-  </si>
-  <si>
-    <t>Định dạng số điện thoại sai. Vui lòng điền lại.</t>
-  </si>
-  <si>
-    <t>CHÚC MỪNG BẠN ĐÃ ĐẶT HÀNG THÀNH CÔNG</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Thêm đường</t>
-  </si>
-  <si>
-    <t>Hoàng Thu Thủy</t>
-  </si>
-  <si>
-    <t>02596acd</t>
-  </si>
-  <si>
-    <t>144 Xuân Thủy, Cầu Giấy</t>
-  </si>
-  <si>
-    <t>Nguyễn Ánh Dương</t>
-  </si>
-  <si>
-    <t>0356845632</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Ngõ 36 Hồ Tùng Mậu, Mai Dịch, Cầu Giấy</t>
-  </si>
-  <si>
-    <t>Thêm đá, Nhiều cay</t>
+    <t>Lê Văn Duy</t>
+  </si>
+  <si>
+    <t>Hoàng Bảo Phương</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1009,28 +1009,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>11</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1069,7 +1069,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.8" customHeight="1">
@@ -1077,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1113,11 +1113,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7">
         <v>8</v>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1160,10 +1160,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6" customHeight="1">
@@ -1175,17 +1175,17 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1">
@@ -1197,19 +1197,19 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.8" customHeight="1">
